--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\B151MavenJUnit\src\test\java\techproed\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -85,12 +85,16 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>Nüfus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -352,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
@@ -367,6 +371,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\B151MavenJUnit\src\test\java\techproed\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IdeaProjects\B151MavenJUnit\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F594-3032-49CA-8B07-363A96782F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7905"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -87,13 +88,25 @@
     <t>Oslo</t>
   </si>
   <si>
-    <t>Nüfus</t>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>2500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,12 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,19 +365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,39 +388,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" t="n">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" t="n">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -415,7 +440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -423,7 +448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -431,15 +456,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -447,7 +475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>

--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IdeaProjects\B151MavenJUnit\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F594-3032-49CA-8B07-363A96782F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A66BF-4DD8-484C-BDC2-C54ADC057D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -91,9 +91,6 @@
     <t>NUFUS</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>2500</t>
+  </si>
+  <si>
+    <t>NUFUS ARTISI</t>
+  </si>
+  <si>
+    <t>%2,5</t>
   </si>
 </sst>
 </file>
@@ -369,15 +372,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +390,11 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -396,32 +402,41 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -429,10 +444,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -440,7 +458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -448,7 +466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -456,7 +474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -464,10 +482,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -475,7 +493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>

--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>%2,5</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,8 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1200</v>
+      <c r="C3" t="n">
+        <v>1200.0</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -429,8 +432,8 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1300</v>
+      <c r="C4" t="n">
+        <v>1300.0</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
